--- a/Middle Board/middle_board_fields.xlsx
+++ b/Middle Board/middle_board_fields.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/Desktop/Avionics-Hardware/Middle Board/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>Refs</t>
   </si>
@@ -47,18 +35,24 @@
     <t>BT1</t>
   </si>
   <si>
-    <t>BK-885-CT-ND</t>
+    <t>36-3000-ND</t>
+  </si>
+  <si>
+    <t>Battery_Holders:Keystone_3000_1x12mm-CoinCell</t>
   </si>
   <si>
     <t>CR_1220</t>
   </si>
   <si>
-    <t>C1, C2, C4-C10, C12, C13</t>
+    <t>C1</t>
   </si>
   <si>
     <t>490-1532-1-ND</t>
   </si>
   <si>
+    <t>Capacitors_SMD:C_0603</t>
+  </si>
+  <si>
     <t>100 nF</t>
   </si>
   <si>
@@ -68,6 +62,9 @@
     <t>587-2990-6-ND</t>
   </si>
   <si>
+    <t>Capacitors_SMD:C_0805</t>
+  </si>
+  <si>
     <t>4.7 uF</t>
   </si>
   <si>
@@ -98,16 +95,19 @@
     <t>2.2 uF</t>
   </si>
   <si>
-    <t>D1, D2, D5</t>
+    <t>D1</t>
   </si>
   <si>
     <t>160-1436-1-ND</t>
   </si>
   <si>
+    <t>LEDs:LED_0603_HandSoldering</t>
+  </si>
+  <si>
     <t>LED_R</t>
   </si>
   <si>
-    <t>D3, D7</t>
+    <t>D3</t>
   </si>
   <si>
     <t>160-1435-1-ND</t>
@@ -116,7 +116,7 @@
     <t>LED_G</t>
   </si>
   <si>
-    <t>D4, D6</t>
+    <t>D4</t>
   </si>
   <si>
     <t>160-1647-1-ND</t>
@@ -131,6 +131,9 @@
     <t>495-2363-6-ND</t>
   </si>
   <si>
+    <t>Custom Footprints:B39162B3520U410</t>
+  </si>
+  <si>
     <t>B39162B3520U410</t>
   </si>
   <si>
@@ -140,15 +143,21 @@
     <t>SAM8799-ND</t>
   </si>
   <si>
+    <t>Custom Footprints:10_pin_Cortex-M_connector</t>
+  </si>
+  <si>
     <t>JTAG Connector</t>
   </si>
   <si>
-    <t>J2-J5</t>
+    <t>J2</t>
   </si>
   <si>
     <t>931-1175-ND</t>
   </si>
   <si>
+    <t>Custom Footprints:SMA_SMD_RIGHT_ANGLE</t>
+  </si>
+  <si>
     <t>Conn_Coaxial</t>
   </si>
   <si>
@@ -158,19 +167,25 @@
     <t>S3299-ND</t>
   </si>
   <si>
+    <t>Custom Footprints:CONN_CARD_02x10_MALE</t>
+  </si>
+  <si>
     <t>Conn_02x10_Counter_Clockwise</t>
   </si>
   <si>
-    <t>R1-R4, R18-R20</t>
+    <t>R1</t>
   </si>
   <si>
     <t>311-56GRCT-ND</t>
   </si>
   <si>
+    <t>Resistors_SMD:R_0603</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
-    <t>R10, R11</t>
+    <t>R10</t>
   </si>
   <si>
     <t>311-39.0HRCT-ND</t>
@@ -179,7 +194,7 @@
     <t>39</t>
   </si>
   <si>
-    <t>R9, R12-R14</t>
+    <t>R9</t>
   </si>
   <si>
     <t>311-100KHRCT-ND</t>
@@ -188,7 +203,7 @@
     <t>100k</t>
   </si>
   <si>
-    <t>R15, R21</t>
+    <t>R15</t>
   </si>
   <si>
     <t>P100DBDKR-ND</t>
@@ -197,7 +212,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>R5, R6, R16, R17, R22, R23</t>
+    <t>R5</t>
   </si>
   <si>
     <t>311-20.0HRCT-ND</t>
@@ -206,7 +221,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>R7, R8</t>
+    <t>R7</t>
   </si>
   <si>
     <t>311-10.0KHRCT-ND</t>
@@ -218,91 +233,113 @@
     <t>SW1</t>
   </si>
   <si>
+    <t>CKN9112CT-ND</t>
+  </si>
+  <si>
+    <t>Custom Footprints:SW_SPST_SMD</t>
+  </si>
+  <si>
     <t>SW_SPST</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
+    <t>ATSAMG55J19B-AUTCT-ND</t>
+  </si>
+  <si>
+    <t>Housings_QFP:LQFP-64_10x10mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t>ATSAMG55</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
+    <t>1528-1426-ND</t>
+  </si>
+  <si>
+    <t>Custom Footprints:BNO055_Breakout</t>
+  </si>
+  <si>
     <t>BNO055_Breakout</t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
+    <t>223-1623-5-ND</t>
+  </si>
+  <si>
+    <t>Custom Footprints:MS5803</t>
+  </si>
+  <si>
     <t>MS5803</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
+    <t>1173-1093-1-ND</t>
+  </si>
+  <si>
+    <t>Custom Footprints:SMD_PD_ANAREN</t>
+  </si>
+  <si>
     <t>PD0810J5050S2HF</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
+    <t>602-1889-ND</t>
+  </si>
+  <si>
+    <t>Custom Footprints:XBEE_PRO_SX</t>
+  </si>
+  <si>
     <t>XBee_PRO_SX</t>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
+    <t>1173-1094-1-ND</t>
+  </si>
+  <si>
     <t>PD0922J5050S2HF</t>
   </si>
   <si>
     <t>U7</t>
   </si>
   <si>
+    <t>672-1009-1-ND</t>
+  </si>
+  <si>
+    <t>Custom Footprints:UBX_NEO_M8Q</t>
+  </si>
+  <si>
     <t>UBX_NEO_M8Q</t>
-  </si>
-  <si>
-    <t>CKN9112CT-ND</t>
-  </si>
-  <si>
-    <t>ATSAMG55J19B-AUTCT-ND</t>
-  </si>
-  <si>
-    <t>1528-1426-ND</t>
-  </si>
-  <si>
-    <t>223-1623-5-ND</t>
-  </si>
-  <si>
-    <t>1173-1093-1-ND</t>
-  </si>
-  <si>
-    <t>602-2007-ND</t>
-  </si>
-  <si>
-    <t>1173-1094-1-ND</t>
-  </si>
-  <si>
-    <t>672-1009-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -318,21 +355,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -620,16 +651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,304 +681,412 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
       <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s">
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s">
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s">
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s">
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s">
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s">
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s">
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s">
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
       <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s">
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s">
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s">
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>96</v>
+      </c>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s">
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>